--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Вход в Гильдию.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Вход в Гильдию.xlsx
@@ -57,27 +57,9 @@
     <t>[CN]Three![K]\n[CN]Smiles go for miles!</t>
   </si>
   <si>
-    <t>[CN]Номер Два![K]\n[CN]При побеге - поплатись!</t>
-  </si>
-  <si>
-    <t>[CN]Îïíåñ Äâà![K]\n[CN]Ðñé ðïáåãå - ðïðìàóéòû!</t>
-  </si>
-  <si>
-    <t>[CN]Номер Три![K]\n[CN]Улыбайся до ушей!</t>
-  </si>
-  <si>
-    <t>[CN]Îïíåñ Óñé![K]\n[CN]Ôìúáàêòÿ äï ôšåê!</t>
-  </si>
-  <si>
     <t>[CN]Four![K]\n[CN]Once you put a job on your team\'s list,\n[CN]then use Take Job! That step can\'t be missed!</t>
   </si>
   <si>
-    <t>[CN]Номер Четыре![K]\n[CN]Занеси задание в список и Возьмись за\n[CN]него! Этот шаг трудно пропустить!</t>
-  </si>
-  <si>
-    <t>[CN]Îïíåñ Œåóúñå![K]\n[CN]Èàîåòé èàäàîéå â òðéòïë é Âïèûíéòû èà\n[CN]îåãï! Üóïó šàã óñôäîï ðñïðôòóéóû!</t>
-  </si>
-  <si>
     <t>[CN]Five![K]\n[CN]Restock your supplies and rations\n[CN]before heading out on explorations!</t>
   </si>
   <si>
@@ -163,6 +145,24 @@
   </si>
   <si>
     <t>[CN]Ðñïäàâøàí âöïäà îåó!\n[CN]Ëïíéòòéïîåñàí âöïäà îåó!\n[CN]Ïðñàšéâàýþéí âöïäà îåó!</t>
+  </si>
+  <si>
+    <t>[CN]Номер Четыре![K]\n[CN]Получив задание, не зевай!\n[CN][CS:N]Возьмись[CR] за дело, этот шаг не пропускай!</t>
+  </si>
+  <si>
+    <t>[CN]Îïíåñ Œåóúñå![K]\n[CN]Ðïìôœéâ èàäàîéå, îå èåâàê!\n[CN][CS:N]Âïèûíéòû[CR] èà äåìï, üóïó šàã îå ðñïðôòëàê!</t>
+  </si>
+  <si>
+    <t>[CN]Номер Три![K]\n[CN]Улыбайся друг, всем вокруг!</t>
+  </si>
+  <si>
+    <t>[CN]Номер Два![K]\n[CN]Посмеешь удрать - проблем не избежать!</t>
+  </si>
+  <si>
+    <t>[CN]Îïíåñ Óñé![K]\n[CN]Ôìúáàêòÿ äñôã, âòåí âïëñôã!</t>
+  </si>
+  <si>
+    <t>[CN]Îïíåñ Äâà![K]\n[CN]Ðïòíååšû ôäñàóû - ðñïáìåí îå éèáåçàóû!</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <f>B2+3</f>
@@ -733,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B12" si="0">B3+3</f>
@@ -749,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -778,13 +778,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -794,13 +794,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -810,13 +810,13 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -826,13 +826,13 @@
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -842,13 +842,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -858,13 +858,13 @@
         <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -874,47 +874,47 @@
         <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
